--- a/solidworks_tracker.xlsx
+++ b/solidworks_tracker.xlsx
@@ -1,34 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25000" windowHeight="10000" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet" state="visible" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+  <si>
+    <t>Proje No</t>
+  </si>
+  <si>
+    <t>Parça Kodu</t>
+  </si>
+  <si>
+    <t>Parça Adı</t>
+  </si>
+  <si>
+    <t>Durum</t>
+  </si>
+  <si>
+    <t>Tezgah Türü</t>
+  </si>
+  <si>
+    <t>Satın Alma Durumu</t>
+  </si>
+  <si>
+    <t>Konum</t>
+  </si>
+  <si>
+    <t>Fason Firma</t>
+  </si>
+  <si>
+    <t>Gönderim Tarihi</t>
+  </si>
+  <si>
+    <t>Termin Tarihi</t>
+  </si>
+  <si>
+    <t>Notlar</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TTU-0736-1200001-0001-R00-1_1</t>
+  </si>
+  <si>
+    <t>tamamlandi</t>
+  </si>
+  <si>
+    <t>TTU-0736-1401001-0001-R00-1</t>
+  </si>
+  <si>
+    <t>kalitede</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +98,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,74 +400,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Proje No</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Parça Kodu</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Parça Adı</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Durum</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Tezgah Türü</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Satın Alma Durumu</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Konum</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Fason Firma</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Gönderim Tarihi</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Termin Tarihi</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Notlar</t>
-        </is>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
